--- a/leetcodecpp/leetcodecpp/pra/xlsx/example.xlsx
+++ b/leetcodecpp/leetcodecpp/pra/xlsx/example.xlsx
@@ -11,6 +11,14 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>你好</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,6 +338,9 @@
       </c>
     </row>
     <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
       <c r="B2">
         <f>RAND()</f>
       </c>

--- a/leetcodecpp/leetcodecpp/pra/xlsx/example.xlsx
+++ b/leetcodecpp/leetcodecpp/pra/xlsx/example.xlsx
@@ -8,17 +8,24 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
+    <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
+    <sheet name="Sheet16" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>你好</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -326,26 +333,222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <f>RAND()</f>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>